--- a/biology/Médecine/1341_en_santé_et_médecine/1341_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1341_en_santé_et_médecine/1341_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1341_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1341_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1341 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1341_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1341_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jeanne d'Évreux, troisième femme et veuve du roi de France Charles le Bel, fait construire à Paris l'infirmerie du couvent des Cordeliers[1] et, rue d'Enfer, celle du monastère des Chartreux[2].
-Jean III, duc de Bretagne, fonde pour les trinitaires un hôpital à Sarzeau[3].
-Une maladrerie est mentionnée à Gruyères, dans le comté de Gruyère, au Sud de l'actuel canton de Fribourg, en Suisse[4].
-Première dissection à l'école de médecine de l'université de Padoue[5].
-À l'occasion d'un embaumement, Gentile da Foligno, professeur à l'université de Pérouse, extrait du cholédoque et décrit pour la première fois un calcul biliaire[6].
-« Cruscas, médecin, est pris en flagrant délit d’abus sexuel à l’encontre d’une femme pauvre et malade[7] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jeanne d'Évreux, troisième femme et veuve du roi de France Charles le Bel, fait construire à Paris l'infirmerie du couvent des Cordeliers et, rue d'Enfer, celle du monastère des Chartreux.
+Jean III, duc de Bretagne, fonde pour les trinitaires un hôpital à Sarzeau.
+Une maladrerie est mentionnée à Gruyères, dans le comté de Gruyère, au Sud de l'actuel canton de Fribourg, en Suisse.
+Première dissection à l'école de médecine de l'université de Padoue.
+À l'occasion d'un embaumement, Gentile da Foligno, professeur à l'université de Pérouse, extrait du cholédoque et décrit pour la première fois un calcul biliaire.
+« Cruscas, médecin, est pris en flagrant délit d’abus sexuel à l’encontre d’une femme pauvre et malade ».</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1341_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1341_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Traduction latine de l'Esquisse empirique (Ύποτύπωσις εμπειρική) de Galien, par le médecin helléniste italien Nicolas de Reggio, sous le titre de Subfiguratio emperica[8].
-Vers 1341 : Hua Shou (1304-1381), médecin chinois, publie le Shi Si Jing Fa Hui (« Description des quatorze méridiens[9] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Traduction latine de l'Esquisse empirique (Ύποτύπωσις εμπειρική) de Galien, par le médecin helléniste italien Nicolas de Reggio, sous le titre de Subfiguratio emperica.
+Vers 1341 : Hua Shou (1304-1381), médecin chinois, publie le Shi Si Jing Fa Hui (« Description des quatorze méridiens »).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1341_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1341_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Blaise (né entre 1271 et 1281), chirurgien et médecin du roi Robert, frère d'Armengaud Blaise et neveu d'Arnaud de Villeneuve[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Blaise (né entre 1271 et 1281), chirurgien et médecin du roi Robert, frère d'Armengaud Blaise et neveu d'Arnaud de Villeneuve.</t>
         </is>
       </c>
     </row>
